--- a/data/Rivers/MakakahiatendKaiparoroRoad_e2fee89472.xlsx
+++ b/data/Rivers/MakakahiatendKaiparoroRoad_e2fee89472.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -531,7 +531,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -570,7 +570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -605,7 +605,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -683,7 +683,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -761,7 +761,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -804,7 +804,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -839,7 +839,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -874,7 +874,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -909,7 +909,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -948,7 +948,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -979,7 +979,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1567,7 +1567,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1684,7 +1684,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1723,7 +1723,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1840,7 +1840,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1918,7 +1918,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -1996,7 +1996,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -2249,7 +2249,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -2778,7 +2778,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -2934,7 +2934,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -2977,7 +2977,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -3047,7 +3047,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -3078,7 +3078,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
@@ -3117,7 +3117,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
@@ -3269,7 +3269,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
@@ -3308,7 +3308,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -3386,7 +3386,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
@@ -3452,7 +3452,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -3491,7 +3491,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -3565,7 +3565,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
@@ -3604,7 +3604,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -3643,7 +3643,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
@@ -3686,7 +3686,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
@@ -3756,7 +3756,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -3787,7 +3787,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -3826,7 +3826,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -3861,7 +3861,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -3939,7 +3939,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -3978,7 +3978,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -4017,7 +4017,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -4060,7 +4060,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -4095,7 +4095,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
@@ -4130,7 +4130,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
@@ -4161,7 +4161,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
@@ -4200,7 +4200,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -4235,7 +4235,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -4313,7 +4313,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
@@ -4352,7 +4352,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
@@ -4391,7 +4391,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
@@ -4434,7 +4434,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
@@ -4469,7 +4469,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
@@ -4543,7 +4543,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
@@ -4578,7 +4578,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
@@ -4656,7 +4656,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
@@ -4695,7 +4695,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
@@ -4734,7 +4734,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C117" s="2" t="n">
@@ -4812,7 +4812,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
@@ -4847,7 +4847,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
@@ -4878,7 +4878,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
@@ -4917,7 +4917,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
@@ -4952,7 +4952,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
@@ -5030,7 +5030,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C124" s="2" t="n">
@@ -5069,7 +5069,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">
@@ -5108,7 +5108,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C127" s="2" t="n">
@@ -5186,7 +5186,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C128" s="2" t="n">
@@ -5221,7 +5221,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
@@ -5252,7 +5252,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C131" s="2" t="n">
@@ -5326,7 +5326,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
@@ -5404,7 +5404,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C134" s="2" t="n">
@@ -5443,7 +5443,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C135" s="2" t="n">
@@ -5482,7 +5482,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
@@ -5525,7 +5525,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C137" s="2" t="n">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C138" s="2" t="n">
@@ -5595,7 +5595,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C139" s="2" t="n">
@@ -5626,7 +5626,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C140" s="2" t="n">
@@ -5665,7 +5665,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C141" s="2" t="n">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C142" s="2" t="n">
@@ -5778,7 +5778,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C144" s="2" t="n">
@@ -5817,7 +5817,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
@@ -5856,7 +5856,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C146" s="2" t="n">
@@ -5899,7 +5899,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C147" s="2" t="n">
@@ -5934,7 +5934,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C148" s="2" t="n">
@@ -5969,7 +5969,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C149" s="2" t="n">
@@ -6000,7 +6000,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C150" s="2" t="n">
@@ -6039,7 +6039,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C151" s="2" t="n">
@@ -6074,7 +6074,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C152" s="2" t="n">
@@ -6152,7 +6152,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
@@ -6191,7 +6191,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C155" s="2" t="n">
@@ -6230,7 +6230,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C156" s="2" t="n">
@@ -6273,7 +6273,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C157" s="2" t="n">
@@ -6308,7 +6308,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C158" s="2" t="n">
@@ -6343,7 +6343,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C159" s="2" t="n">
@@ -6382,7 +6382,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C160" s="2" t="n">
@@ -6417,7 +6417,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C161" s="2" t="n">
@@ -6495,7 +6495,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C163" s="2" t="n">
@@ -6534,7 +6534,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C164" s="2" t="n">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C165" s="2" t="n">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C166" s="2" t="n">
@@ -6651,7 +6651,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C167" s="2" t="n">
@@ -6686,7 +6686,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C168" s="2" t="n">
@@ -6713,7 +6713,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C169" s="2" t="n">
@@ -6740,7 +6740,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C170" s="2" t="n">
@@ -6767,7 +6767,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C171" s="2" t="n">
@@ -6798,7 +6798,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C172" s="2" t="n">
@@ -6837,7 +6837,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C173" s="2" t="n">
@@ -6872,7 +6872,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C174" s="2" t="n">
@@ -6950,7 +6950,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C176" s="2" t="n">
@@ -6989,7 +6989,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C177" s="2" t="n">
@@ -7028,7 +7028,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C178" s="2" t="n">
@@ -7071,7 +7071,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C179" s="2" t="n">
@@ -7106,7 +7106,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C180" s="2" t="n">
@@ -7141,7 +7141,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C181" s="2" t="n">
@@ -7172,7 +7172,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C182" s="2" t="n">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C183" s="2" t="n">
@@ -7242,7 +7242,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C184" s="2" t="n">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C185" s="2" t="n">
@@ -7355,7 +7355,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C187" s="2" t="n">
@@ -7394,7 +7394,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C188" s="2" t="n">
@@ -7433,7 +7433,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C189" s="2" t="n">
@@ -7476,7 +7476,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C190" s="2" t="n">
@@ -7511,7 +7511,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C191" s="2" t="n">
@@ -7546,7 +7546,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C192" s="2" t="n">
@@ -7577,7 +7577,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C193" s="2" t="n">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C194" s="2" t="n">
@@ -7651,7 +7651,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C195" s="2" t="n">
@@ -7729,7 +7729,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C197" s="2" t="n">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C198" s="2" t="n">
@@ -7807,7 +7807,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C199" s="2" t="n">
@@ -7850,7 +7850,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C200" s="2" t="n">
@@ -7885,7 +7885,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C201" s="2" t="n">
@@ -7920,7 +7920,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C202" s="2" t="n">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C203" s="2" t="n">
@@ -7994,7 +7994,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C204" s="2" t="n">
@@ -8072,7 +8072,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C206" s="2" t="n">
@@ -8111,7 +8111,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C207" s="2" t="n">
@@ -8150,7 +8150,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C208" s="2" t="n">
@@ -8193,7 +8193,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C209" s="2" t="n">
@@ -8228,7 +8228,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C210" s="2" t="n">
@@ -8263,7 +8263,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C211" s="2" t="n">
@@ -8294,7 +8294,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C212" s="2" t="n">
@@ -8333,7 +8333,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C213" s="2" t="n">
@@ -8368,7 +8368,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C214" s="2" t="n">
@@ -8446,7 +8446,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C216" s="2" t="n">
@@ -8485,7 +8485,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C217" s="2" t="n">
@@ -8524,7 +8524,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C218" s="2" t="n">
@@ -8567,7 +8567,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C219" s="2" t="n">
@@ -8602,7 +8602,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C220" s="2" t="n">
@@ -8637,7 +8637,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C221" s="2" t="n">
@@ -8668,7 +8668,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C222" s="2" t="n">
@@ -8707,7 +8707,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C223" s="2" t="n">
@@ -8742,7 +8742,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C224" s="2" t="n">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C226" s="2" t="n">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C227" s="2" t="n">
@@ -8898,7 +8898,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C228" s="2" t="n">
@@ -8941,7 +8941,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C229" s="2" t="n">
@@ -8976,7 +8976,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C230" s="2" t="n">
@@ -9011,7 +9011,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C231" s="2" t="n">
@@ -9042,7 +9042,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C232" s="2" t="n">
@@ -9081,7 +9081,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C233" s="2" t="n">
@@ -9116,7 +9116,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C234" s="2" t="n">
@@ -9194,7 +9194,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C236" s="2" t="n">
@@ -9233,7 +9233,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C237" s="2" t="n">
@@ -9272,7 +9272,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C238" s="2" t="n">
@@ -9315,7 +9315,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C239" s="2" t="n">
@@ -9350,7 +9350,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C240" s="2" t="n">
@@ -9385,7 +9385,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C241" s="2" t="n">
@@ -9416,7 +9416,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C242" s="2" t="n">
@@ -9455,7 +9455,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C243" s="2" t="n">
@@ -9490,7 +9490,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C244" s="2" t="n">
@@ -9568,7 +9568,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C246" s="2" t="n">
@@ -9607,7 +9607,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C247" s="2" t="n">
@@ -9646,7 +9646,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C248" s="2" t="n">
@@ -9689,7 +9689,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C249" s="2" t="n">
@@ -9724,7 +9724,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C250" s="2" t="n">
@@ -9759,7 +9759,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C251" s="2" t="n">
@@ -9798,7 +9798,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C252" s="2" t="n">
@@ -9833,7 +9833,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C253" s="2" t="n">
@@ -9911,7 +9911,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C255" s="2" t="n">
@@ -9950,7 +9950,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C256" s="2" t="n">
@@ -9989,7 +9989,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C257" s="2" t="n">
@@ -10032,7 +10032,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C258" s="2" t="n">
@@ -10067,7 +10067,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C259" s="2" t="n">
@@ -10102,7 +10102,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C260" s="2" t="n">
@@ -10133,7 +10133,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C261" s="2" t="n">
@@ -10172,7 +10172,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C262" s="2" t="n">
@@ -10207,7 +10207,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C263" s="2" t="n">
@@ -10285,7 +10285,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C265" s="2" t="n">
@@ -10324,7 +10324,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C266" s="2" t="n">
@@ -10363,7 +10363,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C267" s="2" t="n">
@@ -10406,7 +10406,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C268" s="2" t="n">
@@ -10441,7 +10441,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C269" s="2" t="n">
@@ -10476,7 +10476,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C270" s="2" t="n">
@@ -10507,7 +10507,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C271" s="2" t="n">
@@ -10546,7 +10546,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C272" s="2" t="n">
@@ -10581,7 +10581,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C273" s="2" t="n">
@@ -10659,7 +10659,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C275" s="2" t="n">
@@ -10698,7 +10698,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C276" s="2" t="n">
@@ -10737,7 +10737,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C277" s="2" t="n">
@@ -10780,7 +10780,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C278" s="2" t="n">
@@ -10815,7 +10815,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C279" s="2" t="n">
@@ -10850,7 +10850,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C280" s="2" t="n">
@@ -10881,7 +10881,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C281" s="2" t="n">
@@ -10920,7 +10920,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C282" s="2" t="n">
@@ -10955,7 +10955,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C283" s="2" t="n">
@@ -11033,7 +11033,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C285" s="2" t="n">
@@ -11072,7 +11072,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C286" s="2" t="n">
@@ -11111,7 +11111,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C287" s="2" t="n">
@@ -11154,7 +11154,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C288" s="2" t="n">
@@ -11189,7 +11189,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C289" s="2" t="n">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C290" s="2" t="n">
@@ -11251,7 +11251,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C291" s="2" t="n">
@@ -11278,7 +11278,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C292" s="2" t="n">
@@ -11305,7 +11305,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C293" s="2" t="n">
@@ -11344,7 +11344,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C294" s="2" t="n">
@@ -11379,7 +11379,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C295" s="2" t="n">
@@ -11457,7 +11457,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C297" s="2" t="n">
@@ -11496,7 +11496,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C298" s="2" t="n">
@@ -11535,7 +11535,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C299" s="2" t="n">
@@ -11578,7 +11578,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C300" s="2" t="n">
@@ -11613,7 +11613,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C301" s="2" t="n">
@@ -11648,7 +11648,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C302" s="2" t="n">
@@ -11679,7 +11679,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C303" s="2" t="n">
@@ -11718,7 +11718,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C304" s="2" t="n">
@@ -11753,7 +11753,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C305" s="2" t="n">
@@ -11831,7 +11831,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C307" s="2" t="n">
@@ -11870,7 +11870,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C308" s="2" t="n">
@@ -11909,7 +11909,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C309" s="2" t="n">
@@ -11952,7 +11952,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C310" s="2" t="n">
@@ -11987,7 +11987,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C311" s="2" t="n">
@@ -12022,7 +12022,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C312" s="2" t="n">
@@ -12053,7 +12053,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C313" s="2" t="n">
@@ -12092,7 +12092,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C314" s="2" t="n">
@@ -12127,7 +12127,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C315" s="2" t="n">
@@ -12205,7 +12205,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C317" s="2" t="n">
@@ -12244,7 +12244,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C318" s="2" t="n">
@@ -12283,7 +12283,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C319" s="2" t="n">
@@ -12326,7 +12326,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C320" s="2" t="n">
@@ -12361,7 +12361,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C321" s="2" t="n">
@@ -12396,7 +12396,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C322" s="2" t="n">
@@ -12427,7 +12427,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C323" s="2" t="n">
@@ -12466,7 +12466,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C324" s="2" t="n">
@@ -12501,7 +12501,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C325" s="2" t="n">
@@ -12579,7 +12579,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C327" s="2" t="n">
@@ -12618,7 +12618,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C328" s="2" t="n">
@@ -12657,7 +12657,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C329" s="2" t="n">
@@ -12700,7 +12700,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C330" s="2" t="n">
@@ -12735,7 +12735,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C331" s="2" t="n">
@@ -12770,7 +12770,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C332" s="2" t="n">
@@ -12801,7 +12801,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C333" s="2" t="n">
@@ -12840,7 +12840,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C334" s="2" t="n">
@@ -12875,7 +12875,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C335" s="2" t="n">
@@ -12953,7 +12953,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C337" s="2" t="n">
@@ -12992,7 +12992,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C338" s="2" t="n">
@@ -13031,7 +13031,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C339" s="2" t="n">
@@ -13074,7 +13074,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C340" s="2" t="n">
@@ -13109,7 +13109,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C341" s="2" t="n">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C342" s="2" t="n">
@@ -13175,7 +13175,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C343" s="2" t="n">
@@ -13206,7 +13206,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C344" s="2" t="n">
@@ -13245,7 +13245,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C345" s="2" t="n">
@@ -13280,7 +13280,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C346" s="2" t="n">
@@ -13358,7 +13358,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C348" s="2" t="n">
@@ -13397,7 +13397,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C349" s="2" t="n">
@@ -13436,7 +13436,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C350" s="2" t="n">
@@ -13479,7 +13479,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C351" s="2" t="n">
@@ -13514,7 +13514,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C352" s="2" t="n">
@@ -13549,7 +13549,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C353" s="2" t="n">
@@ -13588,7 +13588,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C354" s="2" t="n">
@@ -13623,7 +13623,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C355" s="2" t="n">
@@ -13701,7 +13701,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C357" s="2" t="n">
@@ -13740,7 +13740,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C358" s="2" t="n">
@@ -13779,7 +13779,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C359" s="2" t="n">
@@ -13822,7 +13822,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C360" s="2" t="n">
@@ -13857,7 +13857,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C361" s="2" t="n">
@@ -13892,7 +13892,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C362" s="2" t="n">
@@ -13923,7 +13923,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C363" s="2" t="n">
@@ -13962,7 +13962,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C364" s="2" t="n">
@@ -13997,7 +13997,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C365" s="2" t="n">
@@ -14075,7 +14075,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C367" s="2" t="n">
@@ -14114,7 +14114,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C368" s="2" t="n">
@@ -14153,7 +14153,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C369" s="2" t="n">
@@ -14196,7 +14196,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C370" s="2" t="n">
@@ -14231,7 +14231,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C371" s="2" t="n">
@@ -14266,7 +14266,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C372" s="2" t="n">
@@ -14297,7 +14297,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C373" s="2" t="n">
@@ -14336,7 +14336,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C374" s="2" t="n">
@@ -14371,7 +14371,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C375" s="2" t="n">
@@ -14449,7 +14449,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C377" s="2" t="n">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C378" s="2" t="n">
@@ -14527,7 +14527,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C379" s="2" t="n">
@@ -14570,7 +14570,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C380" s="2" t="n">
@@ -14605,7 +14605,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C381" s="2" t="n">
@@ -14640,7 +14640,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C382" s="2" t="n">
@@ -14671,7 +14671,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C383" s="2" t="n">
@@ -14710,7 +14710,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C384" s="2" t="n">
@@ -14745,7 +14745,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C385" s="2" t="n">
@@ -14823,7 +14823,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C387" s="2" t="n">
@@ -14862,7 +14862,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C388" s="2" t="n">
@@ -14901,7 +14901,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C389" s="2" t="n">
@@ -14944,7 +14944,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C390" s="2" t="n">
@@ -14979,7 +14979,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C391" s="2" t="n">
@@ -15014,7 +15014,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C392" s="2" t="n">
@@ -15045,7 +15045,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C393" s="2" t="n">
@@ -15084,7 +15084,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C394" s="2" t="n">
@@ -15123,7 +15123,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C395" s="2" t="n">
@@ -15158,7 +15158,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C396" s="2" t="n">
@@ -15236,7 +15236,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C398" s="2" t="n">
@@ -15275,7 +15275,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C399" s="2" t="n">
@@ -15314,7 +15314,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C400" s="2" t="n">
@@ -15357,7 +15357,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C401" s="2" t="n">
@@ -15392,7 +15392,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C402" s="2" t="n">
@@ -15427,7 +15427,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C403" s="2" t="n">
@@ -15458,7 +15458,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C404" s="2" t="n">
@@ -15497,7 +15497,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C405" s="2" t="n">
@@ -15532,7 +15532,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C406" s="2" t="n">
@@ -15610,7 +15610,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C408" s="2" t="n">
@@ -15649,7 +15649,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C409" s="2" t="n">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C410" s="2" t="n">
@@ -15731,7 +15731,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C411" s="2" t="n">
@@ -15766,7 +15766,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C412" s="2" t="n">
@@ -15801,7 +15801,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C413" s="2" t="n">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C414" s="2" t="n">
@@ -15859,7 +15859,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C415" s="2" t="n">
@@ -15886,7 +15886,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C416" s="2" t="n">
@@ -15913,7 +15913,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C417" s="2" t="n">
@@ -15952,7 +15952,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C418" s="2" t="n">
@@ -15987,7 +15987,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C419" s="2" t="n">
@@ -16065,7 +16065,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C421" s="2" t="n">
@@ -16104,7 +16104,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C422" s="2" t="n">
@@ -16143,7 +16143,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C423" s="2" t="n">
@@ -16186,7 +16186,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C424" s="2" t="n">
@@ -16221,7 +16221,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C425" s="2" t="n">
@@ -16256,7 +16256,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C426" s="2" t="n">
@@ -16287,7 +16287,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C427" s="2" t="n">
@@ -16326,7 +16326,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C428" s="2" t="n">
@@ -16361,7 +16361,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C429" s="2" t="n">
@@ -16439,7 +16439,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C431" s="2" t="n">
@@ -16478,7 +16478,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C432" s="2" t="n">
@@ -16517,7 +16517,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C433" s="2" t="n">
@@ -16560,7 +16560,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C434" s="2" t="n">
@@ -16595,7 +16595,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C435" s="2" t="n">
@@ -16630,7 +16630,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C436" s="2" t="n">
@@ -16661,7 +16661,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C437" s="2" t="n">
@@ -16700,7 +16700,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C438" s="2" t="n">
@@ -16735,7 +16735,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C439" s="2" t="n">
@@ -16813,7 +16813,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C441" s="2" t="n">
@@ -16852,7 +16852,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C442" s="2" t="n">
@@ -16891,7 +16891,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C443" s="2" t="n">
@@ -16934,7 +16934,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C444" s="2" t="n">
@@ -16969,7 +16969,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C445" s="2" t="n">
@@ -17004,7 +17004,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C446" s="2" t="n">
@@ -17035,7 +17035,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C447" s="2" t="n">
@@ -17074,7 +17074,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C448" s="2" t="n">
@@ -17109,7 +17109,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C449" s="2" t="n">
@@ -17187,7 +17187,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C451" s="2" t="n">
@@ -17226,7 +17226,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C452" s="2" t="n">
@@ -17265,7 +17265,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C453" s="2" t="n">
@@ -17308,7 +17308,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C454" s="2" t="n">
@@ -17343,7 +17343,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C455" s="2" t="n">
@@ -17378,7 +17378,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C456" s="2" t="n">
@@ -17409,7 +17409,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C457" s="2" t="n">
@@ -17452,7 +17452,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C458" s="2" t="n">
@@ -17491,7 +17491,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C459" s="2" t="n">
@@ -17569,7 +17569,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C461" s="2" t="n">
@@ -17612,7 +17612,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C462" s="2" t="n">
@@ -17655,7 +17655,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C463" s="2" t="n">
@@ -17698,7 +17698,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C464" s="2" t="n">
@@ -17737,7 +17737,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C465" s="2" t="n">
@@ -17776,7 +17776,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C466" s="2" t="n">
@@ -17807,7 +17807,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C467" s="2" t="n">
@@ -17850,7 +17850,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C468" s="2" t="n">
@@ -17889,7 +17889,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C469" s="2" t="n">
@@ -17967,7 +17967,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C471" s="2" t="n">
@@ -18010,7 +18010,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C472" s="2" t="n">
@@ -18053,7 +18053,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C473" s="2" t="n">
@@ -18096,7 +18096,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C474" s="2" t="n">
@@ -18135,7 +18135,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C475" s="2" t="n">
@@ -18174,7 +18174,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C476" s="2" t="n">
@@ -18213,7 +18213,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C477" s="2" t="n">
@@ -18291,7 +18291,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C479" s="2" t="n">
@@ -18334,7 +18334,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C480" s="2" t="n">
@@ -18377,7 +18377,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C481" s="2" t="n">
@@ -18420,7 +18420,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C482" s="2" t="n">
@@ -18459,7 +18459,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C483" s="2" t="n">
@@ -18498,7 +18498,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C484" s="2" t="n">
@@ -18529,7 +18529,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C485" s="2" t="n">
@@ -18572,7 +18572,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C486" s="2" t="n">
@@ -18611,7 +18611,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C487" s="2" t="n">
@@ -18689,7 +18689,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C489" s="2" t="n">
@@ -18732,7 +18732,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C490" s="2" t="n">
@@ -18775,7 +18775,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C491" s="2" t="n">
@@ -18818,7 +18818,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C492" s="2" t="n">
@@ -18857,7 +18857,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C493" s="2" t="n">
@@ -18896,7 +18896,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C494" s="2" t="n">
@@ -18927,7 +18927,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C495" s="2" t="n">
@@ -18970,7 +18970,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C496" s="2" t="n">
@@ -19009,7 +19009,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C497" s="2" t="n">
@@ -19087,7 +19087,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C499" s="2" t="n">
@@ -19130,7 +19130,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C500" s="2" t="n">
@@ -19173,7 +19173,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C501" s="2" t="n">
@@ -19216,7 +19216,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C502" s="2" t="n">
@@ -19255,7 +19255,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C503" s="2" t="n">
@@ -19294,7 +19294,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C504" s="2" t="n">
@@ -19325,7 +19325,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C505" s="2" t="n">
@@ -19368,7 +19368,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C506" s="2" t="n">
@@ -19407,7 +19407,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C507" s="2" t="n">
@@ -19485,7 +19485,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C509" s="2" t="n">
@@ -19528,7 +19528,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C510" s="2" t="n">
@@ -19571,7 +19571,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C511" s="2" t="n">
@@ -19614,7 +19614,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C512" s="2" t="n">
@@ -19653,7 +19653,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C513" s="2" t="n">
@@ -19692,7 +19692,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C514" s="2" t="n">
@@ -19723,7 +19723,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C515" s="2" t="n">
@@ -19766,7 +19766,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C516" s="2" t="n">
@@ -19805,7 +19805,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C517" s="2" t="n">
@@ -19883,7 +19883,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C519" s="2" t="n">
@@ -19926,7 +19926,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C520" s="2" t="n">
@@ -19969,7 +19969,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C521" s="2" t="n">
@@ -20012,7 +20012,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C522" s="2" t="n">
@@ -20051,7 +20051,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C523" s="2" t="n">
@@ -20090,7 +20090,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C524" s="2" t="n">
@@ -20121,7 +20121,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C525" s="2" t="n">
@@ -20164,7 +20164,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C526" s="2" t="n">
@@ -20203,7 +20203,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C527" s="2" t="n">
@@ -20281,7 +20281,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C529" s="2" t="n">
@@ -20324,7 +20324,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C530" s="2" t="n">
@@ -20367,7 +20367,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C531" s="2" t="n">
@@ -20410,7 +20410,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C532" s="2" t="n">
@@ -20449,7 +20449,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C533" s="2" t="n">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C534" s="2" t="n">
@@ -20519,7 +20519,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C535" s="2" t="n">
@@ -20562,7 +20562,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C536" s="2" t="n">
@@ -20601,7 +20601,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C537" s="2" t="n">
@@ -20679,7 +20679,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C539" s="2" t="n">
@@ -20722,7 +20722,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C540" s="2" t="n">
@@ -20765,7 +20765,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C541" s="2" t="n">
@@ -20808,7 +20808,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C542" s="2" t="n">
@@ -20847,7 +20847,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C543" s="2" t="n">
@@ -20886,7 +20886,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C544" s="2" t="n">
@@ -20917,7 +20917,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C545" s="2" t="n">
@@ -20956,7 +20956,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C546" s="2" t="n">
@@ -21034,7 +21034,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C548" s="2" t="n">
@@ -21077,7 +21077,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C549" s="2" t="n">
@@ -21120,7 +21120,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C550" s="2" t="n">
@@ -21163,7 +21163,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C551" s="2" t="n">
@@ -21202,7 +21202,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C552" s="2" t="n">
@@ -21241,7 +21241,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C553" s="2" t="n">
@@ -21268,7 +21268,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C554" s="2" t="n">
@@ -21295,7 +21295,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C555" s="2" t="n">
@@ -21322,7 +21322,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C556" s="2" t="n">
@@ -21365,7 +21365,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C557" s="2" t="n">
@@ -21404,7 +21404,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C558" s="2" t="n">
@@ -21482,7 +21482,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C560" s="2" t="n">
@@ -21525,7 +21525,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C561" s="2" t="n">
@@ -21568,7 +21568,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C562" s="2" t="n">
@@ -21611,7 +21611,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C563" s="2" t="n">
@@ -21650,7 +21650,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C564" s="2" t="n">
@@ -21689,7 +21689,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C565" s="2" t="n">
@@ -21720,7 +21720,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C566" s="2" t="n">
@@ -21759,7 +21759,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C567" s="2" t="n">
@@ -21837,7 +21837,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C569" s="2" t="n">
@@ -21880,7 +21880,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C570" s="2" t="n">
@@ -21923,7 +21923,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C571" s="2" t="n">
@@ -21966,7 +21966,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C572" s="2" t="n">
@@ -22005,7 +22005,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C573" s="2" t="n">
@@ -22044,7 +22044,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C574" s="2" t="n">
@@ -22075,7 +22075,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C575" s="2" t="n">
@@ -22118,7 +22118,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C576" s="2" t="n">
@@ -22157,7 +22157,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C577" s="2" t="n">
@@ -22235,7 +22235,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C579" s="2" t="n">
@@ -22278,7 +22278,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C580" s="2" t="n">
@@ -22321,7 +22321,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C581" s="2" t="n">
@@ -22364,7 +22364,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C582" s="2" t="n">
@@ -22403,7 +22403,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C583" s="2" t="n">
@@ -22442,7 +22442,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C584" s="2" t="n">
@@ -22481,7 +22481,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C585" s="2" t="n">
@@ -22559,7 +22559,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C587" s="2" t="n">
@@ -22602,7 +22602,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C588" s="2" t="n">
@@ -22645,7 +22645,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C589" s="2" t="n">
@@ -22688,7 +22688,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C590" s="2" t="n">
@@ -22727,7 +22727,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C591" s="2" t="n">
@@ -22766,7 +22766,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C592" s="2" t="n">
@@ -22797,7 +22797,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C593" s="2" t="n">
@@ -22840,7 +22840,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C594" s="2" t="n">
@@ -22879,7 +22879,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C595" s="2" t="n">
@@ -22957,7 +22957,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C597" s="2" t="n">
@@ -23000,7 +23000,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C598" s="2" t="n">
@@ -23043,7 +23043,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C599" s="2" t="n">
@@ -23086,7 +23086,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C600" s="2" t="n">
@@ -23125,7 +23125,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C601" s="2" t="n">
@@ -23164,7 +23164,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C602" s="2" t="n">
@@ -23195,7 +23195,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C603" s="2" t="n">
@@ -23238,7 +23238,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C604" s="2" t="n">
@@ -23277,7 +23277,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C605" s="2" t="n">
@@ -23355,7 +23355,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C607" s="2" t="n">
@@ -23398,7 +23398,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C608" s="2" t="n">
@@ -23441,7 +23441,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C609" s="2" t="n">
@@ -23484,7 +23484,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C610" s="2" t="n">
@@ -23523,7 +23523,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C611" s="2" t="n">
@@ -23562,7 +23562,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C612" s="2" t="n">
@@ -23593,7 +23593,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C613" s="2" t="n">
@@ -23636,7 +23636,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C614" s="2" t="n">
@@ -23675,7 +23675,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C615" s="2" t="n">
@@ -23753,7 +23753,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C617" s="2" t="n">
@@ -23796,7 +23796,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C618" s="2" t="n">
@@ -23839,7 +23839,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C619" s="2" t="n">
@@ -23882,7 +23882,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C620" s="2" t="n">
@@ -23921,7 +23921,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C621" s="2" t="n">
@@ -23960,7 +23960,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C622" s="2" t="n">
@@ -23991,7 +23991,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C623" s="2" t="n">
@@ -24034,7 +24034,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C624" s="2" t="n">
@@ -24073,7 +24073,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C625" s="2" t="n">
@@ -24151,7 +24151,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C627" s="2" t="n">
@@ -24194,7 +24194,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C628" s="2" t="n">
@@ -24237,7 +24237,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C629" s="2" t="n">
@@ -24280,7 +24280,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C630" s="2" t="n">
@@ -24319,7 +24319,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C631" s="2" t="n">
@@ -24358,7 +24358,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C632" s="2" t="n">
@@ -24389,7 +24389,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C633" s="2" t="n">
@@ -24432,7 +24432,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C634" s="2" t="n">
@@ -24471,7 +24471,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C635" s="2" t="n">
@@ -24549,7 +24549,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C637" s="2" t="n">
@@ -24592,7 +24592,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C638" s="2" t="n">
@@ -24635,7 +24635,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C639" s="2" t="n">
@@ -24678,7 +24678,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C640" s="2" t="n">
@@ -24717,7 +24717,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C641" s="2" t="n">
@@ -24756,7 +24756,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C642" s="2" t="n">
@@ -24787,7 +24787,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C643" s="2" t="n">
@@ -24814,7 +24814,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C644" s="2" t="n">
@@ -24841,7 +24841,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C645" s="2" t="n">
@@ -24868,7 +24868,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C646" s="2" t="n">
@@ -24907,7 +24907,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C647" s="2" t="n">
@@ -24942,7 +24942,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C648" s="2" t="n">
@@ -24981,7 +24981,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C649" s="2" t="n">
@@ -25020,7 +25020,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C650" s="2" t="n">
@@ -25059,7 +25059,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C651" s="2" t="n">
@@ -25094,7 +25094,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C652" s="2" t="n">
@@ -25129,7 +25129,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C653" s="2" t="n">
@@ -25160,7 +25160,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C654" s="2" t="n">
@@ -25203,7 +25203,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C655" s="2" t="n">
@@ -25242,7 +25242,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C656" s="2" t="n">
@@ -25320,7 +25320,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C658" s="2" t="n">
@@ -25363,7 +25363,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C659" s="2" t="n">
@@ -25406,7 +25406,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C660" s="2" t="n">
@@ -25449,7 +25449,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C661" s="2" t="n">
@@ -25488,7 +25488,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C662" s="2" t="n">
@@ -25527,7 +25527,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C663" s="2" t="n">
@@ -25558,7 +25558,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C664" s="2" t="n">
@@ -25601,7 +25601,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C665" s="2" t="n">
@@ -25640,7 +25640,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C666" s="2" t="n">
@@ -25718,7 +25718,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C668" s="2" t="n">
@@ -25761,7 +25761,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C669" s="2" t="n">
@@ -25804,7 +25804,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C670" s="2" t="n">
@@ -25847,7 +25847,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C671" s="2" t="n">
@@ -25886,7 +25886,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C672" s="2" t="n">
@@ -25925,7 +25925,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C673" s="2" t="n">
@@ -25956,7 +25956,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C674" s="2" t="n">
@@ -25999,7 +25999,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C675" s="2" t="n">
@@ -26038,7 +26038,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C676" s="2" t="n">
@@ -26116,7 +26116,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C678" s="2" t="n">
@@ -26159,7 +26159,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C679" s="2" t="n">
@@ -26202,7 +26202,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C680" s="2" t="n">
@@ -26245,7 +26245,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C681" s="2" t="n">
@@ -26284,7 +26284,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C682" s="2" t="n">
@@ -26323,7 +26323,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C683" s="2" t="n">
@@ -26354,7 +26354,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C684" s="2" t="n">
@@ -26397,7 +26397,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C685" s="2" t="n">
@@ -26436,7 +26436,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C686" s="2" t="n">
@@ -26514,7 +26514,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C688" s="2" t="n">
@@ -26557,7 +26557,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C689" s="2" t="n">
@@ -26600,7 +26600,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C690" s="2" t="n">
@@ -26643,7 +26643,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C691" s="2" t="n">
@@ -26682,7 +26682,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C692" s="2" t="n">
@@ -26721,7 +26721,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C693" s="2" t="n">
@@ -26752,7 +26752,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C694" s="2" t="n">
@@ -26795,7 +26795,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C695" s="2" t="n">
@@ -26834,7 +26834,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C696" s="2" t="n">
@@ -26912,7 +26912,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C698" s="2" t="n">
@@ -26955,7 +26955,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C699" s="2" t="n">
@@ -26998,7 +26998,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C700" s="2" t="n">
@@ -27041,7 +27041,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C701" s="2" t="n">
@@ -27080,7 +27080,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C702" s="2" t="n">
@@ -27119,7 +27119,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C703" s="2" t="n">
@@ -27162,7 +27162,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C704" s="2" t="n">
@@ -27201,7 +27201,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C705" s="2" t="n">
@@ -27279,7 +27279,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C707" s="2" t="n">
@@ -27322,7 +27322,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C708" s="2" t="n">
@@ -27365,7 +27365,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C709" s="2" t="n">
@@ -27408,7 +27408,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C710" s="2" t="n">
@@ -27447,7 +27447,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C711" s="2" t="n">
@@ -27486,7 +27486,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C712" s="2" t="n">
@@ -27525,7 +27525,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C713" s="2" t="n">
@@ -27603,7 +27603,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C715" s="2" t="n">
@@ -27646,7 +27646,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C716" s="2" t="n">
@@ -27689,7 +27689,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C717" s="2" t="n">
@@ -27732,7 +27732,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C718" s="2" t="n">
@@ -27771,7 +27771,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C719" s="2" t="n">
@@ -27810,7 +27810,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C720" s="2" t="n">
@@ -27841,7 +27841,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C721" s="2" t="n">
@@ -27880,7 +27880,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C722" s="2" t="n">
@@ -27958,7 +27958,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C724" s="2" t="n">
@@ -28001,7 +28001,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C725" s="2" t="n">
@@ -28044,7 +28044,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C726" s="2" t="n">
@@ -28087,7 +28087,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C727" s="2" t="n">
@@ -28126,7 +28126,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C728" s="2" t="n">
@@ -28165,7 +28165,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C729" s="2" t="n">
@@ -28196,7 +28196,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C730" s="2" t="n">
@@ -28239,7 +28239,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C731" s="2" t="n">
@@ -28278,7 +28278,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C732" s="2" t="n">
@@ -28356,7 +28356,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C734" s="2" t="n">
@@ -28399,7 +28399,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C735" s="2" t="n">
@@ -28442,7 +28442,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C736" s="2" t="n">
@@ -28485,7 +28485,7 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C737" s="2" t="n">
@@ -28524,7 +28524,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C738" s="2" t="n">
@@ -28563,7 +28563,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C739" s="2" t="n">
@@ -28594,7 +28594,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C740" s="2" t="n">
@@ -28637,7 +28637,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C741" s="2" t="n">
@@ -28676,7 +28676,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C742" s="2" t="n">
@@ -28754,7 +28754,7 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C744" s="2" t="n">
@@ -28797,7 +28797,7 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C745" s="2" t="n">
@@ -28840,7 +28840,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C746" s="2" t="n">
@@ -28883,7 +28883,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C747" s="2" t="n">
@@ -28922,7 +28922,7 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C748" s="2" t="n">
@@ -28961,7 +28961,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C749" s="2" t="n">
@@ -28992,7 +28992,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C750" s="2" t="n">
@@ -29019,7 +29019,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C751" s="2" t="n">
@@ -29046,7 +29046,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C752" s="2" t="n">
@@ -29073,7 +29073,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C753" s="2" t="n">
@@ -29116,7 +29116,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C754" s="2" t="n">
@@ -29155,7 +29155,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C755" s="2" t="n">
@@ -29233,7 +29233,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C757" s="2" t="n">
@@ -29276,7 +29276,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C758" s="2" t="n">
@@ -29319,7 +29319,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C759" s="2" t="n">
@@ -29362,7 +29362,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C760" s="2" t="n">
@@ -29401,7 +29401,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C761" s="2" t="n">
@@ -29440,7 +29440,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C762" s="2" t="n">
@@ -29471,7 +29471,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C763" s="2" t="n">
@@ -29514,7 +29514,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C764" s="2" t="n">
@@ -29553,7 +29553,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C765" s="2" t="n">
@@ -29631,7 +29631,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C767" s="2" t="n">
@@ -29674,7 +29674,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C768" s="2" t="n">
@@ -29717,7 +29717,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C769" s="2" t="n">
@@ -29760,7 +29760,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C770" s="2" t="n">
@@ -29799,7 +29799,7 @@
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C771" s="2" t="n">
@@ -29838,7 +29838,7 @@
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C772" s="2" t="n">
@@ -29869,7 +29869,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C773" s="2" t="n">
@@ -29912,7 +29912,7 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C774" s="2" t="n">
@@ -29951,7 +29951,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C775" s="2" t="n">
@@ -30029,7 +30029,7 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C777" s="2" t="n">
@@ -30072,7 +30072,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C778" s="2" t="n">
@@ -30115,7 +30115,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C779" s="2" t="n">
@@ -30158,7 +30158,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C780" s="2" t="n">
@@ -30197,7 +30197,7 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C781" s="2" t="n">
@@ -30236,7 +30236,7 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C782" s="2" t="n">
@@ -30267,7 +30267,7 @@
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C783" s="2" t="n">
@@ -30310,7 +30310,7 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C784" s="2" t="n">
@@ -30349,7 +30349,7 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C785" s="2" t="n">
@@ -30427,7 +30427,7 @@
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C787" s="2" t="n">
@@ -30470,7 +30470,7 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C788" s="2" t="n">
@@ -30513,7 +30513,7 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C789" s="2" t="n">
@@ -30556,7 +30556,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C790" s="2" t="n">
@@ -30595,7 +30595,7 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C791" s="2" t="n">
@@ -30634,7 +30634,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C792" s="2" t="n">
@@ -30665,7 +30665,7 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C793" s="2" t="n">
@@ -30708,7 +30708,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C794" s="2" t="n">
@@ -30747,7 +30747,7 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C795" s="2" t="n">
@@ -30825,7 +30825,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C797" s="2" t="n">
@@ -30868,7 +30868,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C798" s="2" t="n">
@@ -30911,7 +30911,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C799" s="2" t="n">
@@ -30954,7 +30954,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C800" s="2" t="n">
@@ -30993,7 +30993,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C801" s="2" t="n">
@@ -31032,7 +31032,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C802" s="2" t="n">
@@ -31063,7 +31063,7 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C803" s="2" t="n">
@@ -31106,7 +31106,7 @@
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C804" s="2" t="n">
@@ -31145,7 +31145,7 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C805" s="2" t="n">
@@ -31223,7 +31223,7 @@
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C807" s="2" t="n">
@@ -31266,7 +31266,7 @@
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C808" s="2" t="n">
@@ -31309,7 +31309,7 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C809" s="2" t="n">
@@ -31352,7 +31352,7 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C810" s="2" t="n">
@@ -31391,7 +31391,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C811" s="2" t="n">
@@ -31430,7 +31430,7 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C812" s="2" t="n">
@@ -31461,7 +31461,7 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C813" s="2" t="n">
@@ -31492,7 +31492,7 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C814" s="2" t="n">
@@ -31535,7 +31535,7 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C815" s="2" t="n">
@@ -31574,7 +31574,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C816" s="2" t="n">
@@ -31652,7 +31652,7 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C818" s="2" t="n">
@@ -31695,7 +31695,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C819" s="2" t="n">
@@ -31738,7 +31738,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C820" s="2" t="n">
@@ -31781,7 +31781,7 @@
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C821" s="2" t="n">
@@ -31820,7 +31820,7 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C822" s="2" t="n">
@@ -31859,7 +31859,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C823" s="2" t="n">
@@ -31902,7 +31902,7 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C824" s="2" t="n">
@@ -31941,7 +31941,7 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C825" s="2" t="n">
@@ -32019,7 +32019,7 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C827" s="2" t="n">
@@ -32062,7 +32062,7 @@
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C828" s="2" t="n">
@@ -32105,7 +32105,7 @@
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C829" s="2" t="n">
@@ -32148,7 +32148,7 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C830" s="2" t="n">
@@ -32187,7 +32187,7 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C831" s="2" t="n">
@@ -32226,7 +32226,7 @@
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C832" s="2" t="n">
@@ -32269,7 +32269,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C833" s="2" t="n">
@@ -32308,7 +32308,7 @@
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C834" s="2" t="n">
@@ -32386,7 +32386,7 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C836" s="2" t="n">
@@ -32429,7 +32429,7 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C837" s="2" t="n">
@@ -32472,7 +32472,7 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C838" s="2" t="n">
@@ -32515,7 +32515,7 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C839" s="2" t="n">
@@ -32554,7 +32554,7 @@
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C840" s="2" t="n">
@@ -32593,7 +32593,7 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C841" s="2" t="n">
@@ -32624,7 +32624,7 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C842" s="2" t="n">
@@ -32667,7 +32667,7 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C843" s="2" t="n">
@@ -32706,7 +32706,7 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C844" s="2" t="n">
@@ -32784,7 +32784,7 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C846" s="2" t="n">
@@ -32827,7 +32827,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C847" s="2" t="n">
@@ -32870,7 +32870,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C848" s="2" t="n">
@@ -32913,7 +32913,7 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C849" s="2" t="n">
@@ -32952,7 +32952,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C850" s="2" t="n">
@@ -32991,7 +32991,7 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C851" s="2" t="n">
@@ -33034,7 +33034,7 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C852" s="2" t="n">
@@ -33073,7 +33073,7 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C853" s="2" t="n">
@@ -33151,7 +33151,7 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C855" s="2" t="n">
@@ -33194,7 +33194,7 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C856" s="2" t="n">
@@ -33237,7 +33237,7 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C857" s="2" t="n">
@@ -33280,7 +33280,7 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C858" s="2" t="n">
@@ -33319,7 +33319,7 @@
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C859" s="2" t="n">
@@ -33358,7 +33358,7 @@
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C860" s="2" t="n">
@@ -33385,7 +33385,7 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C861" s="2" t="n">
@@ -33412,7 +33412,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C862" s="2" t="n">
@@ -33439,7 +33439,7 @@
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C863" s="2" t="n">
@@ -33482,7 +33482,7 @@
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C864" s="2" t="n">
@@ -33521,7 +33521,7 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C865" s="2" t="n">
@@ -33599,7 +33599,7 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C867" s="2" t="n">
@@ -33642,7 +33642,7 @@
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C868" s="2" t="n">
@@ -33685,7 +33685,7 @@
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C869" s="2" t="n">
@@ -33728,7 +33728,7 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C870" s="2" t="n">
@@ -33767,7 +33767,7 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C871" s="2" t="n">
@@ -33806,7 +33806,7 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C872" s="2" t="n">
@@ -33837,7 +33837,7 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C873" s="2" t="n">
@@ -33876,7 +33876,7 @@
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C874" s="2" t="n">
@@ -33911,7 +33911,7 @@
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C875" s="2" t="n">
@@ -33946,7 +33946,7 @@
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C876" s="2" t="n">
@@ -33985,7 +33985,7 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C877" s="2" t="n">
@@ -34024,7 +34024,7 @@
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C878" s="2" t="n">
@@ -34063,7 +34063,7 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C879" s="2" t="n">
@@ -34098,7 +34098,7 @@
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C880" s="2" t="n">
@@ -34133,7 +34133,7 @@
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C881" s="2" t="n">
@@ -34176,7 +34176,7 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C882" s="2" t="n">
@@ -34215,7 +34215,7 @@
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C883" s="2" t="n">
@@ -34293,7 +34293,7 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C885" s="2" t="n">
@@ -34336,7 +34336,7 @@
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C886" s="2" t="n">
@@ -34379,7 +34379,7 @@
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C887" s="2" t="n">
@@ -34422,7 +34422,7 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C888" s="2" t="n">
@@ -34461,7 +34461,7 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C889" s="2" t="n">
@@ -34500,7 +34500,7 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C890" s="2" t="n">
@@ -34531,7 +34531,7 @@
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C891" s="2" t="n">
@@ -34574,7 +34574,7 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C892" s="2" t="n">
@@ -34613,7 +34613,7 @@
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C893" s="2" t="n">
@@ -34691,7 +34691,7 @@
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C895" s="2" t="n">
@@ -34734,7 +34734,7 @@
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C896" s="2" t="n">
@@ -34777,7 +34777,7 @@
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C897" s="2" t="n">
@@ -34820,7 +34820,7 @@
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C898" s="2" t="n">
@@ -34859,7 +34859,7 @@
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C899" s="2" t="n">
@@ -34898,7 +34898,7 @@
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C900" s="2" t="n">
@@ -34929,7 +34929,7 @@
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C901" s="2" t="n">
@@ -34960,7 +34960,7 @@
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C902" s="2" t="n">
@@ -35003,7 +35003,7 @@
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C903" s="2" t="n">
@@ -35042,7 +35042,7 @@
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C904" s="2" t="n">
@@ -35120,7 +35120,7 @@
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C906" s="2" t="n">
@@ -35163,7 +35163,7 @@
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C907" s="2" t="n">
@@ -35206,7 +35206,7 @@
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C908" s="2" t="n">
@@ -35249,7 +35249,7 @@
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C909" s="2" t="n">
@@ -35288,7 +35288,7 @@
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C910" s="2" t="n">
@@ -35327,7 +35327,7 @@
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C911" s="2" t="n">
@@ -35358,7 +35358,7 @@
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C912" s="2" t="n">
@@ -35401,7 +35401,7 @@
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C913" s="2" t="n">
@@ -35440,7 +35440,7 @@
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C914" s="2" t="n">
@@ -35518,7 +35518,7 @@
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C916" s="2" t="n">
@@ -35561,7 +35561,7 @@
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C917" s="2" t="n">
@@ -35604,7 +35604,7 @@
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C918" s="2" t="n">
@@ -35647,7 +35647,7 @@
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C919" s="2" t="n">
@@ -35686,7 +35686,7 @@
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C920" s="2" t="n">
@@ -35725,7 +35725,7 @@
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C921" s="2" t="n">
@@ -35756,7 +35756,7 @@
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C922" s="2" t="n">
@@ -35799,7 +35799,7 @@
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C923" s="2" t="n">
@@ -35838,7 +35838,7 @@
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C924" s="2" t="n">
@@ -35916,7 +35916,7 @@
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C926" s="2" t="n">
@@ -35959,7 +35959,7 @@
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C927" s="2" t="n">
@@ -36002,7 +36002,7 @@
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C928" s="2" t="n">
@@ -36045,7 +36045,7 @@
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C929" s="2" t="n">
@@ -36084,7 +36084,7 @@
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C930" s="2" t="n">
@@ -36123,7 +36123,7 @@
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C931" s="2" t="n">
@@ -36154,7 +36154,7 @@
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C932" s="2" t="n">
@@ -36197,7 +36197,7 @@
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C933" s="2" t="n">
@@ -36236,7 +36236,7 @@
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C934" s="2" t="n">
@@ -36314,7 +36314,7 @@
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C936" s="2" t="n">
@@ -36357,7 +36357,7 @@
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C937" s="2" t="n">
@@ -36400,7 +36400,7 @@
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C938" s="2" t="n">
@@ -36443,7 +36443,7 @@
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C939" s="2" t="n">
@@ -36482,7 +36482,7 @@
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C940" s="2" t="n">
@@ -36521,7 +36521,7 @@
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C941" s="2" t="n">
@@ -36564,7 +36564,7 @@
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C942" s="2" t="n">
@@ -36603,7 +36603,7 @@
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C943" s="2" t="n">
@@ -36681,7 +36681,7 @@
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C945" s="2" t="n">
@@ -36724,7 +36724,7 @@
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C946" s="2" t="n">
@@ -36767,7 +36767,7 @@
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C947" s="2" t="n">
@@ -36810,7 +36810,7 @@
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C948" s="2" t="n">
@@ -36849,7 +36849,7 @@
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C949" s="2" t="n">
@@ -36888,7 +36888,7 @@
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C950" s="2" t="n">
@@ -36931,7 +36931,7 @@
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C951" s="2" t="n">
@@ -36970,7 +36970,7 @@
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C952" s="2" t="n">
@@ -37048,7 +37048,7 @@
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C954" s="2" t="n">
@@ -37091,7 +37091,7 @@
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C955" s="2" t="n">
@@ -37134,7 +37134,7 @@
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C956" s="2" t="n">
@@ -37177,7 +37177,7 @@
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C957" s="2" t="n">
@@ -37216,7 +37216,7 @@
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C958" s="2" t="n">
@@ -37255,7 +37255,7 @@
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C959" s="2" t="n">
@@ -37298,7 +37298,7 @@
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C960" s="2" t="n">
@@ -37337,7 +37337,7 @@
       </c>
       <c r="B961" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C961" s="2" t="n">
@@ -37415,7 +37415,7 @@
       </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C963" s="2" t="n">
@@ -37458,7 +37458,7 @@
       </c>
       <c r="B964" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C964" s="2" t="n">
@@ -37501,7 +37501,7 @@
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C965" s="2" t="n">
@@ -37544,7 +37544,7 @@
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C966" s="2" t="n">
@@ -37583,7 +37583,7 @@
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C967" s="2" t="n">
@@ -37622,7 +37622,7 @@
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C968" s="2" t="n">
@@ -37653,7 +37653,7 @@
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C969" s="2" t="n">
@@ -37696,7 +37696,7 @@
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C970" s="2" t="n">
@@ -37735,7 +37735,7 @@
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C971" s="2" t="n">
@@ -37813,7 +37813,7 @@
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C973" s="2" t="n">
@@ -37856,7 +37856,7 @@
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C974" s="2" t="n">
@@ -37899,7 +37899,7 @@
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C975" s="2" t="n">
@@ -37942,7 +37942,7 @@
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C976" s="2" t="n">
@@ -37981,7 +37981,7 @@
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C977" s="2" t="n">
@@ -38020,7 +38020,7 @@
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C978" s="2" t="n">
@@ -38063,7 +38063,7 @@
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C979" s="2" t="n">
@@ -38102,7 +38102,7 @@
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C980" s="2" t="n">
@@ -38180,7 +38180,7 @@
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C982" s="2" t="n">
@@ -38223,7 +38223,7 @@
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C983" s="2" t="n">
@@ -38266,7 +38266,7 @@
       </c>
       <c r="B984" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C984" s="2" t="n">
@@ -38309,7 +38309,7 @@
       </c>
       <c r="B985" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C985" s="2" t="n">
@@ -38348,7 +38348,7 @@
       </c>
       <c r="B986" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C986" s="2" t="n">
@@ -38387,7 +38387,7 @@
       </c>
       <c r="B987" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C987" s="2" t="n">
@@ -38418,7 +38418,7 @@
       </c>
       <c r="B988" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C988" s="2" t="n">
@@ -38445,7 +38445,7 @@
       </c>
       <c r="B989" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C989" s="2" t="n">
@@ -38472,7 +38472,7 @@
       </c>
       <c r="B990" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C990" s="2" t="n">
@@ -38499,7 +38499,7 @@
       </c>
       <c r="B991" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C991" s="2" t="n">
@@ -38542,7 +38542,7 @@
       </c>
       <c r="B992" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C992" s="2" t="n">
@@ -38581,7 +38581,7 @@
       </c>
       <c r="B993" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C993" s="2" t="n">
@@ -38659,7 +38659,7 @@
       </c>
       <c r="B995" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C995" s="2" t="n">
@@ -38702,7 +38702,7 @@
       </c>
       <c r="B996" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C996" s="2" t="n">
@@ -38745,7 +38745,7 @@
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C997" s="2" t="n">
@@ -38788,7 +38788,7 @@
       </c>
       <c r="B998" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C998" s="2" t="n">
@@ -38827,7 +38827,7 @@
       </c>
       <c r="B999" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C999" s="2" t="n">
@@ -38866,7 +38866,7 @@
       </c>
       <c r="B1000" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C1000" s="2" t="n">
@@ -38897,7 +38897,7 @@
       </c>
       <c r="B1001" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C1001" s="2" t="n">
@@ -38940,7 +38940,7 @@
       </c>
       <c r="B1002" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C1002" s="2" t="n">
@@ -38979,7 +38979,7 @@
       </c>
       <c r="B1003" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C1003" s="2" t="n">
@@ -39057,7 +39057,7 @@
       </c>
       <c r="B1005" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C1005" s="2" t="n">
@@ -39100,7 +39100,7 @@
       </c>
       <c r="B1006" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C1006" s="2" t="n">
@@ -39143,7 +39143,7 @@
       </c>
       <c r="B1007" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C1007" s="2" t="n">
@@ -39186,7 +39186,7 @@
       </c>
       <c r="B1008" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C1008" s="2" t="n">
@@ -39225,7 +39225,7 @@
       </c>
       <c r="B1009" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C1009" s="2" t="n">
@@ -39264,7 +39264,7 @@
       </c>
       <c r="B1010" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C1010" s="2" t="n">
@@ -39295,7 +39295,7 @@
       </c>
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C1011" s="2" t="n">
@@ -39326,7 +39326,7 @@
       </c>
       <c r="B1012" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C1012" s="2" t="n">
@@ -39369,7 +39369,7 @@
       </c>
       <c r="B1013" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C1013" s="2" t="n">
@@ -39408,7 +39408,7 @@
       </c>
       <c r="B1014" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C1014" s="2" t="n">
@@ -39486,7 +39486,7 @@
       </c>
       <c r="B1016" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C1016" s="2" t="n">
@@ -39529,7 +39529,7 @@
       </c>
       <c r="B1017" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C1017" s="2" t="n">
@@ -39572,7 +39572,7 @@
       </c>
       <c r="B1018" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C1018" s="2" t="n">
@@ -39615,7 +39615,7 @@
       </c>
       <c r="B1019" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C1019" s="2" t="n">
@@ -39654,7 +39654,7 @@
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C1020" s="2" t="n">
@@ -39693,7 +39693,7 @@
       </c>
       <c r="B1021" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C1021" s="2" t="n">
@@ -39724,7 +39724,7 @@
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C1022" s="2" t="n">
@@ -39767,7 +39767,7 @@
       </c>
       <c r="B1023" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C1023" s="2" t="n">
@@ -39806,7 +39806,7 @@
       </c>
       <c r="B1024" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C1024" s="2" t="n">
@@ -39884,7 +39884,7 @@
       </c>
       <c r="B1026" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C1026" s="2" t="n">
@@ -39927,7 +39927,7 @@
       </c>
       <c r="B1027" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C1027" s="2" t="n">
@@ -39970,7 +39970,7 @@
       </c>
       <c r="B1028" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C1028" s="2" t="n">
@@ -40013,7 +40013,7 @@
       </c>
       <c r="B1029" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C1029" s="2" t="n">
@@ -40052,7 +40052,7 @@
       </c>
       <c r="B1030" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C1030" s="2" t="n">
@@ -40091,7 +40091,7 @@
       </c>
       <c r="B1031" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C1031" s="2" t="n">
@@ -40134,7 +40134,7 @@
       </c>
       <c r="B1032" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C1032" s="2" t="n">
@@ -40173,7 +40173,7 @@
       </c>
       <c r="B1033" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C1033" s="2" t="n">
@@ -40251,7 +40251,7 @@
       </c>
       <c r="B1035" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C1035" s="2" t="n">
@@ -40294,7 +40294,7 @@
       </c>
       <c r="B1036" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C1036" s="2" t="n">
@@ -40337,7 +40337,7 @@
       </c>
       <c r="B1037" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C1037" s="2" t="n">
@@ -40380,7 +40380,7 @@
       </c>
       <c r="B1038" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C1038" s="2" t="n">
@@ -40419,7 +40419,7 @@
       </c>
       <c r="B1039" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C1039" s="2" t="n">
